--- a/Informes/METRADOS/Copia de Planilla de metrados INSTALACIONES ESPECIALES SETIEMBRE - 2022 final.xlsx
+++ b/Informes/METRADOS/Copia de Planilla de metrados INSTALACIONES ESPECIALES SETIEMBRE - 2022 final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\GitHub\Instalaciones_Especiales\Informes\METRADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB57E87-0C85-4C70-995B-90E602879992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38197C8-F457-40E0-AD04-841090507784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1904,6 +1904,45 @@
     <xf numFmtId="4" fontId="40" fillId="4" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1926,12 +1965,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,39 +1978,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4593,9 +4593,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFD51"/>
+  <dimension ref="A1:XFD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -4617,106 +4617,106 @@
   <sheetData>
     <row r="1" spans="1:14 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:14 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="162"/>
     </row>
     <row r="3" spans="1:14 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="1:14 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="172"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="176" t="s">
+      <c r="G5" s="176"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="165" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
@@ -4726,28 +4726,28 @@
       <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="177"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
     </row>
     <row r="7" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="167" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="169"/>
     </row>
     <row r="8" spans="1:14 16384:16384" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -5304,7 +5304,7 @@
       <c r="M32" s="20"/>
       <c r="N32" s="27"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A33" s="112"/>
       <c r="B33" s="147" t="s">
         <v>103</v>
@@ -5331,7 +5331,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="27"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A34" s="112"/>
       <c r="B34" s="147" t="s">
         <v>105</v>
@@ -5358,7 +5358,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A35" s="112"/>
       <c r="B35" s="147" t="s">
         <v>107</v>
@@ -5385,7 +5385,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="27"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A36" s="112"/>
       <c r="B36" s="147" t="s">
         <v>109</v>
@@ -5407,7 +5407,7 @@
       <c r="M36" s="20"/>
       <c r="N36" s="27"/>
     </row>
-    <row r="37" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A37" s="112"/>
       <c r="B37" s="147" t="s">
         <v>111</v>
@@ -5429,7 +5429,7 @@
       <c r="M37" s="20"/>
       <c r="N37" s="27"/>
     </row>
-    <row r="38" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A38" s="112"/>
       <c r="B38" s="145" t="s">
         <v>113</v>
@@ -5449,7 +5449,7 @@
       <c r="M38" s="20"/>
       <c r="N38" s="27"/>
     </row>
-    <row r="39" spans="1:14" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A39" s="112"/>
       <c r="B39" s="147" t="s">
         <v>115</v>
@@ -5476,157 +5476,8 @@
       <c r="M39" s="20"/>
       <c r="N39" s="27"/>
     </row>
-    <row r="40" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-    </row>
-    <row r="48" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-    </row>
-    <row r="49" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-    </row>
-    <row r="50" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-    </row>
-    <row r="51" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
     <mergeCell ref="B7:L7"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="K5:K6"/>
@@ -5636,10 +5487,15 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5669,106 +5525,106 @@
   <sheetData>
     <row r="1" spans="1:14 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:14 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="162"/>
     </row>
     <row r="3" spans="1:14 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="1:14 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="172"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="176" t="s">
+      <c r="G5" s="176"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="165" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
@@ -5778,28 +5634,28 @@
       <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="177"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
     </row>
     <row r="7" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="167" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="168"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
     </row>
     <row r="8" spans="1:14 16384:16384" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
@@ -6437,106 +6293,106 @@
   <sheetData>
     <row r="1" spans="1:14 16384:16384" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="156"/>
     </row>
     <row r="2" spans="1:14 16384:16384" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="162"/>
     </row>
     <row r="3" spans="1:14 16384:16384" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="170" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
+      <c r="K3" s="171"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="1:14 16384:16384" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="172"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="159"/>
     </row>
     <row r="5" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="160" t="s">
+      <c r="E5" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="164" t="s">
+      <c r="F5" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="165"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="176" t="s">
+      <c r="G5" s="176"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="160" t="s">
+      <c r="J5" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="160" t="s">
+      <c r="K5" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="160" t="s">
+      <c r="L5" s="165" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14 16384:16384" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
       <c r="F6" s="11" t="s">
         <v>7</v>
       </c>
@@ -6546,10 +6402,10 @@
       <c r="H6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="177"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
     </row>
     <row r="7" spans="1:14 16384:16384" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -7220,7 +7076,7 @@
       <c r="K48" s="76"/>
       <c r="L48" s="24"/>
     </row>
-    <row r="49" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B49" s="14"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -7233,8 +7089,7 @@
       <c r="K49" s="76"/>
       <c r="L49" s="24"/>
     </row>
-    <row r="50" spans="1:12 16384:16384" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B50" s="14"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -7248,7 +7103,7 @@
       <c r="L50" s="24"/>
       <c r="XFD50" s="22"/>
     </row>
-    <row r="51" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B51" s="19"/>
       <c r="C51" s="13"/>
       <c r="D51" s="28"/>
@@ -7261,7 +7116,7 @@
       <c r="K51" s="26"/>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B52" s="19"/>
       <c r="C52" s="47"/>
       <c r="D52" s="43"/>
@@ -7274,7 +7129,7 @@
       <c r="K52" s="46"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B53" s="19"/>
       <c r="C53" s="78"/>
       <c r="D53" s="34"/>
@@ -7287,7 +7142,7 @@
       <c r="K53" s="26"/>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B54" s="19"/>
       <c r="C54" s="30"/>
       <c r="D54" s="28"/>
@@ -7300,7 +7155,7 @@
       <c r="K54" s="46"/>
       <c r="L54" s="79"/>
     </row>
-    <row r="55" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B55" s="19"/>
       <c r="C55" s="30"/>
       <c r="D55" s="28"/>
@@ -7313,7 +7168,7 @@
       <c r="K55" s="26"/>
       <c r="L55" s="80"/>
     </row>
-    <row r="56" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B56" s="19"/>
       <c r="C56" s="30"/>
       <c r="D56" s="28"/>
@@ -7326,7 +7181,7 @@
       <c r="K56" s="26"/>
       <c r="L56" s="80"/>
     </row>
-    <row r="57" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B57" s="19"/>
       <c r="C57" s="30"/>
       <c r="D57" s="28"/>
@@ -7339,7 +7194,7 @@
       <c r="K57" s="26"/>
       <c r="L57" s="80"/>
     </row>
-    <row r="58" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B58" s="19"/>
       <c r="C58" s="30"/>
       <c r="D58" s="28"/>
@@ -7352,7 +7207,7 @@
       <c r="K58" s="26"/>
       <c r="L58" s="80"/>
     </row>
-    <row r="59" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B59" s="19"/>
       <c r="C59" s="30"/>
       <c r="D59" s="28"/>
@@ -7365,7 +7220,7 @@
       <c r="K59" s="26"/>
       <c r="L59" s="80"/>
     </row>
-    <row r="60" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B60" s="19"/>
       <c r="C60" s="78"/>
       <c r="D60" s="34"/>
@@ -7378,7 +7233,7 @@
       <c r="K60" s="26"/>
       <c r="L60" s="80"/>
     </row>
-    <row r="61" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B61" s="19"/>
       <c r="C61" s="30"/>
       <c r="D61" s="28"/>
@@ -7391,7 +7246,7 @@
       <c r="K61" s="26"/>
       <c r="L61" s="80"/>
     </row>
-    <row r="62" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B62" s="19"/>
       <c r="C62" s="25"/>
       <c r="D62" s="28"/>
@@ -7404,7 +7259,7 @@
       <c r="K62" s="26"/>
       <c r="L62" s="80"/>
     </row>
-    <row r="63" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B63" s="19"/>
       <c r="C63" s="47"/>
       <c r="D63" s="43"/>
@@ -7417,7 +7272,7 @@
       <c r="K63" s="26"/>
       <c r="L63" s="80"/>
     </row>
-    <row r="64" spans="1:12 16384:16384" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12 16384:16384" x14ac:dyDescent="0.2">
       <c r="B64" s="19"/>
       <c r="C64" s="78"/>
       <c r="D64" s="34"/>
